--- a/resources/static/assets/uploads/2208 Wellness Course Update_FROM SARA 2.23.21.xlsx
+++ b/resources/static/assets/uploads/2208 Wellness Course Update_FROM SARA 2.23.21.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,23 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhaber\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AD4B079-8113-40B6-9A97-FDC89C4DFFF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E36B73AC-E9A1-45D7-B5FC-B619AA419FC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="31785" yWindow="3270" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -190,7 +181,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -541,11 +532,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75"/>
